--- a/output_analysis/START_1_SEC_2.0_ENERGY_2.0_EV-FACTOR_22_EV_25_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_1_SEC_2.0_ENERGY_2.0_EV-FACTOR_22_EV_25_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,628 +434,590 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1 7 11 112 165</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5 14 20</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>111</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4 8 17 26</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>101</v>
+      </c>
+      <c r="E3" t="n">
         <v>100</v>
       </c>
-      <c r="H2" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>8 12 25 199 241</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>98</v>
-      </c>
       <c r="F3" t="n">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>98</v>
-      </c>
-      <c r="H3" t="n">
-        <v>119</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10 45 99 101 170</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>18 34 47 86 123</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>151</v>
       </c>
       <c r="E4" t="n">
         <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12 37 54 59 72 284</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>168</v>
+      </c>
+      <c r="E5" t="n">
         <v>100</v>
       </c>
-      <c r="H4" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23 58 97 180</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16 132 135 235</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
         <v>98</v>
       </c>
-      <c r="F5" t="n">
-        <v>102</v>
-      </c>
-      <c r="G5" t="n">
-        <v>98</v>
-      </c>
-      <c r="H5" t="n">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>33 36</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
       <c r="F6" t="n">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
-      </c>
-      <c r="H6" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>29 89 95 107</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>85</v>
+      </c>
+      <c r="E7" t="n">
+        <v>96</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>34 98 129 137 231</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>49 64 66 102</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>110</v>
-      </c>
-      <c r="G7" t="n">
-        <v>100</v>
-      </c>
-      <c r="H7" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>69 144 215</t>
-        </is>
+      <c r="D8" t="n">
+        <v>127</v>
       </c>
       <c r="E8" t="n">
         <v>98</v>
       </c>
       <c r="F8" t="n">
+        <v>14</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>35 48 297</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
         <v>74</v>
       </c>
-      <c r="G8" t="n">
+      <c r="E9" t="n">
         <v>98</v>
       </c>
-      <c r="H8" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>73 99 114 147 156 169</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
       <c r="F9" t="n">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
-      </c>
-      <c r="H9" t="n">
-        <v>119</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>38 61 105</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>75 109 280</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>75</v>
       </c>
       <c r="E10" t="n">
         <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>100</v>
-      </c>
-      <c r="H10" t="n">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>64 80 199 268</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>126 185 220</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>110</v>
       </c>
       <c r="E11" t="n">
         <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>77 178 202</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>93</v>
+      </c>
+      <c r="E12" t="n">
         <v>100</v>
       </c>
-      <c r="H11" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>128 163 237 277</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>98</v>
-      </c>
       <c r="F12" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>98</v>
-      </c>
-      <c r="H12" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>88 94 117</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>133 191 193 195</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>78</v>
       </c>
       <c r="E13" t="n">
         <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
-      </c>
-      <c r="H13" t="n">
-        <v>137</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>110 141</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>145 251</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>76</v>
       </c>
       <c r="E14" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F14" t="n">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
-      </c>
-      <c r="H14" t="n">
-        <v>83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>128 155 218</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>155 253</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>110</v>
       </c>
       <c r="E15" t="n">
         <v>98</v>
       </c>
       <c r="F15" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>134 180 234</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>74</v>
+      </c>
+      <c r="E16" t="n">
         <v>98</v>
       </c>
-      <c r="H15" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>165 167</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161 163 220</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>60</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>166 176 206 208</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>85</v>
+      </c>
+      <c r="E18" t="n">
         <v>100</v>
       </c>
-      <c r="F16" t="n">
-        <v>60</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100</v>
-      </c>
-      <c r="H16" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>219 244 269 281</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>100</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="F18" t="n">
+        <v>12</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>190 198 201 203</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
         <v>81</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100</v>
-      </c>
-      <c r="H17" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>230 233</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>98</v>
-      </c>
-      <c r="F18" t="n">
-        <v>50</v>
-      </c>
-      <c r="G18" t="n">
-        <v>98</v>
-      </c>
-      <c r="H18" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>17</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>254 286 287</t>
-        </is>
       </c>
       <c r="E19" t="n">
         <v>100</v>
       </c>
       <c r="F19" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>209 283 287</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>72</v>
+      </c>
+      <c r="E20" t="n">
+        <v>98</v>
+      </c>
+      <c r="F20" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>221 223</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>49</v>
+      </c>
+      <c r="E21" t="n">
+        <v>98</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>43</v>
+      </c>
+      <c r="E22" t="n">
+        <v>86</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>227 238 245 273 289</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>73</v>
+      </c>
+      <c r="E23" t="n">
         <v>100</v>
       </c>
-      <c r="H19" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>18</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>84</v>
-      </c>
-      <c r="F20" t="n">
-        <v>43</v>
-      </c>
-      <c r="G20" t="n">
-        <v>84</v>
-      </c>
-      <c r="H20" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>19</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>274</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>100</v>
-      </c>
-      <c r="F21" t="n">
-        <v>50</v>
-      </c>
-      <c r="G21" t="n">
-        <v>100</v>
-      </c>
-      <c r="H21" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>296</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>88</v>
-      </c>
-      <c r="F22" t="n">
-        <v>46</v>
-      </c>
-      <c r="G22" t="n">
-        <v>88</v>
-      </c>
-      <c r="H22" t="n">
-        <v>46</v>
+      <c r="F23" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
